--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347721.3285053456</v>
+        <v>340342.4960235785</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937635</v>
+        <v>17287498.18481127</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.31512993</v>
+        <v>2706694.536732692</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6817595.897612776</v>
+        <v>7180891.584450178</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>138.0197822400959</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>101.8762729638813</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -817,10 +819,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>126.8355823247567</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>104.6990987647614</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>322.9476438327728</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>53.00122480006321</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1057,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1069,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>24.62703520776666</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>134.1782802442054</v>
       </c>
       <c r="V8" t="n">
-        <v>150.0040322483049</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>122.4914619056499</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1370,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>235.5603051487118</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1424,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>115.3682709422768</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1528,13 +1530,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>39.59754480244054</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1546,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>225.1591880132206</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1658,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>159.6548382928788</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1777,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022968</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1844,19 +1846,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
-        <v>23.44104776699048</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1904,7 +1906,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.370999537607</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>46.22530271040065</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>153.2006427344284</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2810,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022602</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>34.71811217257828</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3196,7 +3198,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3317,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3430,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>47.61404849749811</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>27.97358346682158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.2666242787484</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>137.2470510215431</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3986,16 +3988,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>75.78308005187024</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4138,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4150,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4198,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>158.5878795129349</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>920.5045547294914</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="C2" t="n">
-        <v>482.3620819129147</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="D2" t="n">
-        <v>482.3620819129147</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E2" t="n">
-        <v>482.3620819129147</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F2" t="n">
-        <v>482.3620819129147</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148856</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>2567.155500205286</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.119422805321</v>
+        <v>2567.155500205286</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739147</v>
+        <v>2567.155500205286</v>
       </c>
       <c r="W2" t="n">
-        <v>1339.647018150181</v>
+        <v>2162.300045616319</v>
       </c>
       <c r="X2" t="n">
-        <v>920.5045547294914</v>
+        <v>1743.157582195629</v>
       </c>
       <c r="Y2" t="n">
-        <v>920.5045547294914</v>
+        <v>1743.157582195629</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4412,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.1364226482442</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C4" t="n">
-        <v>794.0196728252577</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4513,25 +4515,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2670.060826431428</v>
+        <v>2564.304161012477</v>
       </c>
       <c r="T4" t="n">
-        <v>2424.181380009883</v>
+        <v>2318.424714590933</v>
       </c>
       <c r="U4" t="n">
-        <v>2145.748379262989</v>
+        <v>2039.991713844038</v>
       </c>
       <c r="V4" t="n">
-        <v>1858.792871133419</v>
+        <v>1753.036205714468</v>
       </c>
       <c r="W4" t="n">
-        <v>1586.766466719711</v>
+        <v>1481.00980130076</v>
       </c>
       <c r="X4" t="n">
-        <v>1341.374712053123</v>
+        <v>1235.618046634173</v>
       </c>
       <c r="Y4" t="n">
-        <v>1113.955041367231</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>815.9375319722691</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C5" t="n">
-        <v>815.9375319722691</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>380.0277471467136</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>380.0277471467136</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F5" t="n">
-        <v>380.0277471467136</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K5" t="n">
-        <v>518.386598053036</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L5" t="n">
-        <v>1179.226652594814</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>2500.906761678372</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>2500.906761678372</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
         <v>2500.906761678372</v>
@@ -4592,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2616.524235724294</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2616.524235724294</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748445</v>
+        <v>2616.524235724294</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.221573682272</v>
+        <v>2616.524235724294</v>
       </c>
       <c r="W5" t="n">
-        <v>1643.366119093305</v>
+        <v>2616.524235724294</v>
       </c>
       <c r="X5" t="n">
-        <v>1224.223655672616</v>
+        <v>2197.381772303605</v>
       </c>
       <c r="Y5" t="n">
-        <v>815.9375319722691</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4643,31 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1375.081325612186</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1043.799427915185</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C7" t="n">
-        <v>871.2377163984103</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D7" t="n">
-        <v>705.359723599933</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="E7" t="n">
-        <v>535.6017198506702</v>
+        <v>420.5753386802029</v>
       </c>
       <c r="F7" t="n">
-        <v>358.8946658124264</v>
+        <v>243.8682846419591</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>78.27700966778681</v>
       </c>
       <c r="H7" t="n">
         <v>53.40121652862857</v>
@@ -4723,13 +4725,13 @@
         <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
@@ -4750,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2545.844385276825</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>2267.41138452993</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1980.45587640036</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1708.429471986652</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1463.037717320064</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y7" t="n">
-        <v>1235.618046634173</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>776.3061159271172</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="C8" t="n">
-        <v>776.3061159271172</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>776.3061159271172</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>342.5313710854123</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862857</v>
@@ -4829,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2534.52721002314</v>
       </c>
       <c r="V8" t="n">
-        <v>2434.889728122028</v>
+        <v>2171.910259956966</v>
       </c>
       <c r="W8" t="n">
-        <v>2030.034273533061</v>
+        <v>2171.910259956966</v>
       </c>
       <c r="X8" t="n">
-        <v>1610.891810112372</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="Y8" t="n">
-        <v>1202.605686412025</v>
+        <v>1752.767796536277</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>938.6281453713193</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>938.6281453713193</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713193</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862857</v>
@@ -4987,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2546.332077031782</v>
       </c>
       <c r="T10" t="n">
-        <v>2424.181380009883</v>
+        <v>2300.452630610237</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>2022.019629863342</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1735.064121733773</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2190.910269352854</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="C11" t="n">
-        <v>1752.767796536277</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="D11" t="n">
-        <v>1316.858011710722</v>
+        <v>1410.153123596217</v>
       </c>
       <c r="E11" t="n">
-        <v>883.0832668690169</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F11" t="n">
-        <v>455.2158372782247</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G11" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H11" t="n">
         <v>53.81800590148856</v>
@@ -5045,13 +5047,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O11" t="n">
         <v>1293.567921177998</v>
@@ -5072,19 +5074,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U11" t="n">
-        <v>2553.527219419027</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V11" t="n">
-        <v>2190.910269352854</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W11" t="n">
-        <v>2190.910269352854</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X11" t="n">
-        <v>2190.910269352854</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y11" t="n">
-        <v>2190.910269352854</v>
+        <v>1846.062908421772</v>
       </c>
     </row>
     <row r="12">
@@ -5118,7 +5120,7 @@
         <v>53.40121652862857</v>
       </c>
       <c r="J12" t="n">
-        <v>377.9595414948409</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K12" t="n">
         <v>515.0619848335834</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C13" t="n">
-        <v>701.4797126491475</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D13" t="n">
-        <v>535.6017198506702</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E13" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F13" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G13" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I13" t="n">
         <v>53.40121652862857</v>
@@ -5221,28 +5223,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R13" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T13" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U13" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V13" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W13" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X13" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y13" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>487.5927507431934</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="C14" t="n">
-        <v>487.5927507431934</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="D14" t="n">
-        <v>487.5927507431934</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="E14" t="n">
-        <v>53.81800590148855</v>
+        <v>570.3816837039496</v>
       </c>
       <c r="F14" t="n">
-        <v>53.81800590148855</v>
+        <v>570.3816837039496</v>
       </c>
       <c r="G14" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K14" t="n">
-        <v>714.2412710704069</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L14" t="n">
-        <v>714.2412710704069</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="M14" t="n">
-        <v>714.2412710704069</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="N14" t="n">
-        <v>714.2412710704069</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O14" t="n">
-        <v>1375.081325612185</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P14" t="n">
-        <v>2035.921380153963</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q14" t="n">
-        <v>2582.420166112558</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
@@ -5306,22 +5308,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U14" t="n">
-        <v>2508.793313004277</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V14" t="n">
-        <v>2146.176362938104</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W14" t="n">
-        <v>1741.320908349137</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="X14" t="n">
-        <v>1322.178444928448</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y14" t="n">
-        <v>913.8923212281012</v>
+        <v>1004.156428545654</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K15" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L15" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M15" t="n">
-        <v>714.2412710704069</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N15" t="n">
-        <v>714.2412710704069</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O15" t="n">
-        <v>714.2412710704069</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P15" t="n">
-        <v>1375.081325612185</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q15" t="n">
         <v>1716.640978007438</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C16" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D16" t="n">
-        <v>565.4575492903075</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E16" t="n">
-        <v>395.6995455410447</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F16" t="n">
-        <v>218.9924915028009</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5458,28 +5460,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R16" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S16" t="n">
-        <v>2651.821657388744</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T16" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U16" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V16" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W16" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X16" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y16" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>770.8155900490646</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>770.8155900490646</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>770.8155900490646</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>770.8155900490646</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>342.9481604582723</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>342.9481604582723</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>53.81800590148855</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>488.6559039815464</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1149.495958523325</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1149.495958523325</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1149.495958523325</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>1149.495958523325</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>1810.336013065103</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719776</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678371</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>2646.383000404165</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>2387.160697721182</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>2024.543747655008</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>2024.543747655008</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>1605.401284234319</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>1197.115160533972</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>79.46488968908616</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>404.0232146552985</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1599.468199913098</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1132.45937714051</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>959.897665623735</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>794.0196728252577</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>624.2616690759949</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>447.554615037751</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>281.9633400635787</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>142.0611657539532</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.060826431428</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.181380009883</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2356.071333755254</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2069.115825625685</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1797.089421211977</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1551.697666545389</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1324.277995859497</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.8551150562604</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5998,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>3365.117609755798</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>3026.677905440545</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>2680.212847653039</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>2514.621572678866</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>4867.162567117436</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>4588.729566370542</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>4301.774058240972</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>4029.747653827264</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>3784.355899160676</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>3556.936228474785</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6412,22 +6414,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6709,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6928,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,34 +6937,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
         <v>4809.322912595856</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="37">
@@ -7078,13 +7080,13 @@
         <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7163,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,31 +7174,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1181.319000882661</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
         <v>2090.757574835212</v>
@@ -7400,7 +7402,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7412,49 +7414,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1286.300469346936</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L41" t="n">
-        <v>1286.300469346936</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M41" t="n">
-        <v>2443.348304557487</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="N41" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>875.8255515988633</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>703.2638400820882</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D43" t="n">
-        <v>537.3858472836109</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="E43" t="n">
-        <v>367.6278435343481</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>190.9207894961043</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
@@ -7591,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1437.776784721425</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>999.6343119048488</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>563.7245270792932</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>129.9497822375884</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>53.40121652862856</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>53.40121652862856</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>488.6559039815464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>488.6559039815464</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L44" t="n">
-        <v>801.8819313892766</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M44" t="n">
-        <v>1462.721985931055</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N44" t="n">
-        <v>1462.721985931055</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O44" t="n">
-        <v>1462.721985931055</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P44" t="n">
-        <v>2123.562040472833</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2670.060826431428</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2265.205371842461</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>1846.062908421772</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1437.776784721425</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1512.992809943912</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>1406.536348780554</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>1311.446059927107</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>1217.325645254061</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>1133.941806870223</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>1048.556717136407</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>1006.821064952619</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>1032.884738113077</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>1357.443063079289</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>2552.888048337089</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>2670.060826431428</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>2606.605388879811</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>2476.426745210413</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>2300.090198210381</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>2100.97268027238</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1915.649926005574</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>1760.782490244454</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>1634.296711023675</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>826.679210032407</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>654.117498515632</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>654.117498515632</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>484.3594947663693</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>307.6524407281255</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>142.0611657539531</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>142.0611657539531</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862846</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933183</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>414.7393562644539</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>832.949238032415</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370972</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2648.6430051368</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2489.401636434796</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.522190013251</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U46" t="n">
-        <v>1965.089189266357</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V46" t="n">
-        <v>1678.133681136787</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W46" t="n">
-        <v>1406.107276723079</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1245.917499437286</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1018.497828751394</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>112.1603739174595</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>30.03100411261573</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L5" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.5152066078572</v>
       </c>
-      <c r="N5" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941939</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8532,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>540.0049805212332</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8693,7 +8695,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>667.5152066078572</v>
@@ -8766,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.4873165037804</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>88.52591951401018</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,25 +9008,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="P15" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9164,22 +9166,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.515206607857</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>145.5272350047205</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>288.7351832965069</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>753.9218057523913</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>756.3484258820594</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>986.1859873202727</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L44" t="n">
-        <v>316.389926674475</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>667.515206607857</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>259.3640708228728</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>115.9902818918105</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22705,10 +22707,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>44.00051207685064</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22723,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22755,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>52.94985625022193</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22784,25 +22786,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>74.43620923019597</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>29.81413027793815</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22945,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22957,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>113.8761173587626</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22990,10 +22992,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>122.4517994119479</v>
       </c>
       <c r="V8" t="n">
-        <v>208.9867483172068</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23197,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,13 +23229,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>35.15749310933337</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23242,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23258,13 +23260,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>193.8766922445759</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,16 +23314,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>141.2618087138765</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>131.2385495991668</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23507,10 +23509,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>172.2246650497482</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,10 +23548,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>96.97524136327445</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23732,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>194.4255070887013</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>56.52943299419019</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>122.4480280049973</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>120.446375214272</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>197.1718905122112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.63380825304887</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>30.81337269022703</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>347.8056752430141</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>84.34995760698675</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465356.2717204937</v>
+        <v>465356.2717204936</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465356.2717204937</v>
+        <v>465356.2717204936</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>465356.2717204937</v>
+        <v>465356.2717204936</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>465356.2717204936</v>
+        <v>465356.2717204937</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465356.2717204936</v>
+        <v>724964.045341412</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>724964.0453414121</v>
+        <v>724964.045341412</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>724964.0453414121</v>
+        <v>724964.0453414118</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465356.2717204936</v>
+        <v>724964.045341412</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>143731.2720946097</v>
+      </c>
+      <c r="C2" t="n">
+        <v>143731.2720946097</v>
+      </c>
+      <c r="D2" t="n">
         <v>143731.2720946098</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>143731.2720946097</v>
+      </c>
+      <c r="F2" t="n">
         <v>143731.2720946098</v>
       </c>
-      <c r="D2" t="n">
-        <v>143731.2720946097</v>
-      </c>
-      <c r="E2" t="n">
-        <v>143731.2720946098</v>
-      </c>
-      <c r="F2" t="n">
-        <v>143731.2720946097</v>
-      </c>
       <c r="G2" t="n">
-        <v>143731.2720946097</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="H2" t="n">
-        <v>223914.4732583747</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="I2" t="n">
         <v>223914.4732583748</v>
@@ -26338,22 +26340,22 @@
         <v>223914.4732583748</v>
       </c>
       <c r="K2" t="n">
-        <v>223914.4732583748</v>
+        <v>223914.4732583747</v>
       </c>
       <c r="L2" t="n">
         <v>223914.4732583748</v>
       </c>
       <c r="M2" t="n">
-        <v>223914.4732583748</v>
+        <v>223914.4732583747</v>
       </c>
       <c r="N2" t="n">
         <v>223914.4732583748</v>
       </c>
       <c r="O2" t="n">
+        <v>223914.4732583747</v>
+      </c>
+      <c r="P2" t="n">
         <v>223914.4732583748</v>
-      </c>
-      <c r="P2" t="n">
-        <v>143731.2720946097</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>167396.1246670934</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>146976.4664146549</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,16 +26423,16 @@
         <v>17770.48083418235</v>
       </c>
       <c r="D4" t="n">
-        <v>17770.48083418234</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="E4" t="n">
         <v>17770.48083418235</v>
       </c>
       <c r="F4" t="n">
-        <v>17770.48083418234</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="G4" t="n">
-        <v>17770.48083418235</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26456,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>27684.07875020269</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="P4" t="n">
-        <v>17770.48083418234</v>
+        <v>27684.07875020268</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26481,37 @@
         <v>40584.92456175771</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-171951.4318853752</v>
       </c>
       <c r="C6" t="n">
+        <v>51748.26669866967</v>
+      </c>
+      <c r="D6" t="n">
         <v>51748.2666986697</v>
       </c>
-      <c r="D6" t="n">
-        <v>51748.26669866964</v>
-      </c>
       <c r="E6" t="n">
+        <v>85375.86669866968</v>
+      </c>
+      <c r="F6" t="n">
         <v>85375.86669866971</v>
       </c>
-      <c r="F6" t="n">
-        <v>85375.86669866968</v>
-      </c>
       <c r="G6" t="n">
-        <v>85375.86669866968</v>
+        <v>-48883.96876471382</v>
       </c>
       <c r="H6" t="n">
-        <v>-46272.42187569597</v>
+        <v>118512.1559023796</v>
       </c>
       <c r="I6" t="n">
         <v>118512.1559023796</v>
       </c>
       <c r="J6" t="n">
-        <v>-56139.19281532661</v>
+        <v>-56139.19281532653</v>
       </c>
       <c r="K6" t="n">
-        <v>118512.1559023797</v>
+        <v>118512.1559023796</v>
       </c>
       <c r="L6" t="n">
-        <v>118512.1559023795</v>
+        <v>118512.1559023796</v>
       </c>
       <c r="M6" t="n">
-        <v>118512.1559023797</v>
+        <v>118512.1559023796</v>
       </c>
       <c r="N6" t="n">
         <v>118512.1559023796</v>
       </c>
       <c r="O6" t="n">
+        <v>-28464.31051227535</v>
+      </c>
+      <c r="P6" t="n">
         <v>118512.1559023796</v>
-      </c>
-      <c r="P6" t="n">
-        <v>85375.86669866968</v>
       </c>
     </row>
   </sheetData>
@@ -26799,10 +26801,10 @@
         <v>667.5152066078571</v>
       </c>
       <c r="F4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34778,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>112.1603739174595</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>30.03100411261573</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L5" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.5152066078572</v>
       </c>
-      <c r="N5" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941939</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35252,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>540.0049805212332</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35413,7 +35415,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,7 +35424,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>667.5152066078572</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.4873165037804</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>88.52591951401018</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="P15" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35884,28 +35886,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.515206607857</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>145.5272350047205</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37075,10 +37077,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>288.7351832965069</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>753.9218057523913</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>756.3484258820594</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>986.1859873202727</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L44" t="n">
-        <v>316.389926674475</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>667.515206607857</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>340342.4960235785</v>
+        <v>337677.5285554211</v>
       </c>
     </row>
     <row r="7">
@@ -661,13 +661,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>101.8762729638813</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>399.3567405221477</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S4" t="n">
-        <v>104.6990987647614</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>53.00122480006321</v>
+        <v>35.16791248334784</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1068,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H7" t="n">
-        <v>24.62703520776666</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>121.3429825402025</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>134.1782802442054</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>122.4914619056499</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1356,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>235.5603051487118</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>45.91568880648689</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>152.1906055433435</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>225.1591880132206</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1669,13 +1669,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480022968</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225841</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.3431845617044</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022602</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3082,7 +3082,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -3438,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225719</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3757,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3900,13 +3900,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>137.2470510215431</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1316.858011710722</v>
+        <v>1756.718735138289</v>
       </c>
       <c r="C2" t="n">
-        <v>1316.858011710722</v>
+        <v>1318.576262321712</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.858011710722</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="E2" t="n">
-        <v>883.0832668690169</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862857</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2567.155500205286</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2567.155500205286</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V2" t="n">
-        <v>2567.155500205286</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W2" t="n">
-        <v>2162.300045616319</v>
+        <v>2183.018305623197</v>
       </c>
       <c r="X2" t="n">
-        <v>1743.157582195629</v>
+        <v>2183.018305623197</v>
       </c>
       <c r="Y2" t="n">
-        <v>1743.157582195629</v>
+        <v>2183.018305623197</v>
       </c>
     </row>
     <row r="3">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1043.799427915185</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C4" t="n">
-        <v>871.2377163984103</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D4" t="n">
-        <v>705.359723599933</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E4" t="n">
-        <v>535.6017198506702</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S4" t="n">
-        <v>2564.304161012477</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T4" t="n">
-        <v>2318.424714590933</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U4" t="n">
-        <v>2039.991713844038</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V4" t="n">
-        <v>1753.036205714468</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W4" t="n">
-        <v>1481.00980130076</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X4" t="n">
-        <v>1235.618046634173</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y4" t="n">
-        <v>1235.618046634173</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="5">
@@ -4567,10 +4567,10 @@
         <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
         <v>1293.567921177998</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2616.524235724294</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="T5" t="n">
-        <v>2616.524235724294</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="U5" t="n">
-        <v>2616.524235724294</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="V5" t="n">
-        <v>2616.524235724294</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="W5" t="n">
-        <v>2616.524235724294</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="X5" t="n">
-        <v>2197.381772303605</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y5" t="n">
-        <v>1789.095648603258</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4707,16 +4707,16 @@
         <v>590.3333424294657</v>
       </c>
       <c r="D7" t="n">
-        <v>590.3333424294657</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E7" t="n">
-        <v>420.5753386802029</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F7" t="n">
-        <v>243.8682846419591</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G7" t="n">
-        <v>78.27700966778681</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H7" t="n">
         <v>53.40121652862857</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1752.767796536277</v>
+        <v>1740.966918709668</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.767796536277</v>
+        <v>1302.824445893092</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.858011710722</v>
+        <v>866.9146610675361</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>866.9146610675361</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148856</v>
@@ -4807,13 +4807,13 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
         <v>632.7278666362199</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2534.52721002314</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2171.910259956966</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>2171.910259956966</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="X8" t="n">
-        <v>1752.767796536277</v>
+        <v>2167.266489194576</v>
       </c>
       <c r="Y8" t="n">
-        <v>1752.767796536277</v>
+        <v>2167.266489194576</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.799427915185</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862857</v>
@@ -4989,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2546.332077031782</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2300.452630610237</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2022.019629863342</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1735.064121733773</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.037717320064</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1463.037717320064</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1235.618046634173</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1846.062908421772</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C11" t="n">
-        <v>1846.062908421772</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D11" t="n">
-        <v>1410.153123596217</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E11" t="n">
-        <v>1172.213421425801</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F11" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G11" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H11" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I11" t="n">
         <v>53.40121652862857</v>
@@ -5047,13 +5047,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M11" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N11" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O11" t="n">
         <v>1293.567921177998</v>
@@ -5080,13 +5080,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W11" t="n">
-        <v>2265.205371842461</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X11" t="n">
-        <v>1846.062908421772</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y11" t="n">
-        <v>1846.062908421772</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I12" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>515.0619848335834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L12" t="n">
-        <v>515.0619848335834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M12" t="n">
-        <v>515.0619848335834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N12" t="n">
-        <v>515.0619848335834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O12" t="n">
-        <v>515.0619848335834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P12" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q12" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R12" t="n">
         <v>1716.640978007438</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C13" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D13" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E13" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F13" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G13" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I13" t="n">
         <v>53.40121652862857</v>
@@ -5226,25 +5226,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T13" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U13" t="n">
-        <v>2356.071333755254</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V13" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W13" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X13" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y13" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1004.156428545654</v>
+        <v>1182.488464651585</v>
       </c>
       <c r="C14" t="n">
-        <v>1004.156428545654</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D14" t="n">
-        <v>1004.156428545654</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E14" t="n">
-        <v>570.3816837039496</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F14" t="n">
-        <v>570.3816837039496</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G14" t="n">
         <v>342.9481604582723</v>
@@ -5281,22 +5281,22 @@
         <v>53.40121652862857</v>
       </c>
       <c r="K14" t="n">
+        <v>53.40121652862857</v>
+      </c>
+      <c r="L14" t="n">
+        <v>53.40121652862857</v>
+      </c>
+      <c r="M14" t="n">
         <v>714.241271070407</v>
       </c>
-      <c r="L14" t="n">
-        <v>801.8819313892767</v>
-      </c>
-      <c r="M14" t="n">
-        <v>801.8819313892767</v>
-      </c>
       <c r="N14" t="n">
-        <v>1462.721985931055</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O14" t="n">
-        <v>1462.721985931055</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="P14" t="n">
-        <v>2123.562040472834</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q14" t="n">
         <v>2670.060826431428</v>
@@ -5305,25 +5305,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T14" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U14" t="n">
-        <v>2190.771296621484</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V14" t="n">
-        <v>1828.15434655531</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W14" t="n">
-        <v>1423.298891966344</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="X14" t="n">
-        <v>1004.156428545654</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="Y14" t="n">
-        <v>1004.156428545654</v>
+        <v>1336.216349038801</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I15" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J15" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L15" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M15" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N15" t="n">
-        <v>1375.081325612186</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O15" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P15" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q15" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R15" t="n">
         <v>1716.640978007438</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C16" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D16" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E16" t="n">
-        <v>233.2795245870976</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F16" t="n">
-        <v>56.57247054885377</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5460,28 +5460,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R16" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S16" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T16" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U16" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V16" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W16" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X16" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y16" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3365.117609755798</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>3192.555898239023</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>3026.677905440545</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>2856.919901691283</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>2680.212847653039</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>2514.621572678866</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>4867.162567117436</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>4588.729566370542</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>4301.774058240972</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>4029.747653827264</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>3784.355899160676</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>3556.936228474785</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4320942910045</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
         <v>102.6776296436396</v>
@@ -6709,25 +6709,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T32" t="n">
         <v>4809.322912595856</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6946,7 +6946,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7362,22 +7362,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2594.704009018975</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.271008272081</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7414,49 +7414,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>811.7546776883914</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>811.7546776883914</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
         <v>5113.04201353898</v>
@@ -7687,13 +7687,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7836,22 +7836,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>585.1784344521125</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8455,16 +8455,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>145.5272350047206</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.5152066078571</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8695,16 +8695,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>145.5272350047208</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>667.5152066078572</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,25 +8929,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>667.5152066078571</v>
       </c>
-      <c r="L14" t="n">
-        <v>88.52591951400984</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>345.0097498941939</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -10357,7 +10357,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1859873202727</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22549,13 +22549,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>115.9902818918105</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -22609,10 +22609,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.450159520929276</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22722,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S4" t="n">
-        <v>52.94985625022193</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>29.81413027793815</v>
+        <v>47.64744259465352</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22956,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H7" t="n">
-        <v>113.8761173587626</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>302.2457727546818</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>122.4517994119479</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -23193,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>63.43016517136665</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>35.15749310933337</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23244,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>193.8766922445759</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.0353499799955</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>269.8459692367152</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>172.2246650497482</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142708</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.795820744408</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H37" t="n">
-        <v>120.446375214272</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25602,7 +25602,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>30.81337269022703</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>724964.045341412</v>
+        <v>724964.0453414118</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>724964.045341412</v>
+        <v>724964.0453414118</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>724964.0453414118</v>
+        <v>724964.045341412</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>724964.045341412</v>
+        <v>724964.0453414118</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>724964.045341412</v>
+        <v>724964.0453414118</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>143731.2720946097</v>
       </c>
       <c r="D2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="E2" t="n">
         <v>143731.2720946097</v>
@@ -26334,28 +26334,28 @@
         <v>223914.4732583748</v>
       </c>
       <c r="I2" t="n">
-        <v>223914.4732583748</v>
+        <v>223914.4732583747</v>
       </c>
       <c r="J2" t="n">
         <v>223914.4732583748</v>
       </c>
       <c r="K2" t="n">
+        <v>223914.4732583748</v>
+      </c>
+      <c r="L2" t="n">
+        <v>223914.4732583749</v>
+      </c>
+      <c r="M2" t="n">
+        <v>223914.4732583748</v>
+      </c>
+      <c r="N2" t="n">
         <v>223914.4732583747</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>223914.4732583748</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>223914.4732583747</v>
-      </c>
-      <c r="N2" t="n">
-        <v>223914.4732583748</v>
-      </c>
-      <c r="O2" t="n">
-        <v>223914.4732583747</v>
-      </c>
-      <c r="P2" t="n">
-        <v>223914.4732583748</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26484,34 +26484,34 @@
         <v>40584.92456175771</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-171951.4318853752</v>
+        <v>-172446.3221139565</v>
       </c>
       <c r="C6" t="n">
-        <v>51748.26669866967</v>
+        <v>51253.37647008841</v>
       </c>
       <c r="D6" t="n">
-        <v>51748.2666986697</v>
+        <v>51253.37647008841</v>
       </c>
       <c r="E6" t="n">
-        <v>85375.86669866968</v>
+        <v>84880.97647008843</v>
       </c>
       <c r="F6" t="n">
-        <v>85375.86669866971</v>
+        <v>84880.97647008846</v>
       </c>
       <c r="G6" t="n">
-        <v>-48883.96876471382</v>
+        <v>-48907.19310409651</v>
       </c>
       <c r="H6" t="n">
-        <v>118512.1559023796</v>
+        <v>118488.931562997</v>
       </c>
       <c r="I6" t="n">
-        <v>118512.1559023796</v>
+        <v>118488.9315629969</v>
       </c>
       <c r="J6" t="n">
-        <v>-56139.19281532653</v>
+        <v>-56162.41715470925</v>
       </c>
       <c r="K6" t="n">
-        <v>118512.1559023796</v>
+        <v>118488.931562997</v>
       </c>
       <c r="L6" t="n">
-        <v>118512.1559023796</v>
+        <v>118488.931562997</v>
       </c>
       <c r="M6" t="n">
-        <v>118512.1559023796</v>
+        <v>118488.931562997</v>
       </c>
       <c r="N6" t="n">
-        <v>118512.1559023796</v>
+        <v>118488.9315629969</v>
       </c>
       <c r="O6" t="n">
-        <v>-28464.31051227535</v>
+        <v>-28487.534851658</v>
       </c>
       <c r="P6" t="n">
-        <v>118512.1559023796</v>
+        <v>118488.9315629969</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768883</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768883</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768883</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>585.1784344521125</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35175,16 +35175,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>145.5272350047206</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.5152066078571</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35415,16 +35415,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>145.5272350047208</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>667.5152066078572</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>667.5152066078571</v>
       </c>
-      <c r="L14" t="n">
-        <v>88.52591951400984</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>345.0097498941939</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37077,7 +37077,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37314,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37782,7 +37782,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37791,7 +37791,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1859873202727</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
